--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Library Management\library-management - backup\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D785FED-0CAD-41CF-9A52-A6E26F6A7F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97602EA0-9C6A-4822-94DD-CE3AC101AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" xr2:uid="{24DE5253-7C76-45AC-90F1-16C383BD4078}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -42,18 +42,12 @@
     <t>shivo123</t>
   </si>
   <si>
-    <t>alice123</t>
-  </si>
-  <si>
     <t>bob123</t>
   </si>
   <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>admin123</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -90,14 +84,44 @@
     <t>student06</t>
   </si>
   <si>
-    <t>student07</t>
+    <t>aoa123</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>stud101</t>
+  </si>
+  <si>
+    <t>stud102</t>
+  </si>
+  <si>
+    <t>stud103</t>
+  </si>
+  <si>
+    <t>stud104</t>
+  </si>
+  <si>
+    <t>stud105</t>
+  </si>
+  <si>
+    <t>stud106</t>
+  </si>
+  <si>
+    <t>admin@123</t>
+  </si>
+  <si>
+    <t>shivo</t>
+  </si>
+  <si>
+    <t>student01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +139,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,10 +169,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -148,8 +181,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -513,7 +550,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E14" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,26 +570,26 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>101</v>
+      <c r="A3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -561,98 +598,101 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>102</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>103</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>105</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>106</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>107</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{02EEA7E3-0FEF-4E22-BA70-7644D3D19266}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>